--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login_invalidCredentials" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>Reset Password Error Message</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>admin124</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>AjuMathew</t>
+  </si>
+  <si>
+    <t>123admin</t>
   </si>
 </sst>
 </file>
@@ -432,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -523,12 +538,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Login_invalidCredentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login_User" sheetId="3" r:id="rId3"/>
+    <sheet name="Users_Page" sheetId="4" r:id="rId4"/>
+    <sheet name="User_Details" sheetId="5" r:id="rId5"/>
+    <sheet name="User_Management" sheetId="6" r:id="rId6"/>
+    <sheet name="Invalid_Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Add_Sales_Commission_Agent" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -69,23 +76,106 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>admin124</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
     <t>AjuMathew</t>
   </si>
   <si>
-    <t>123admin</t>
+    <t>admin12</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Expected Title</t>
+  </si>
+  <si>
+    <t>Home - Llolll</t>
+  </si>
+  <si>
+    <t>Users - Llolll</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Miss Jupiter Saturn</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>jsaturn2022@gmail.com</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <r>
+      <t>"No matching records found"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>salespercentage</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>Venus Jupiter Tower</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Mr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +204,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +225,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -139,7 +256,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,6 +267,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,7 +577,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -536,12 +665,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -551,50 +692,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
         <v>123456</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -604,6 +729,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
+        <v>1390</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -613,4 +935,67 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="Invalid_Data" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
     <sheet name="Add_Sales_Commission_Agent" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="User_Add" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Mr</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>saturn123</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -667,12 +685,67 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="6">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -941,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
     <sheet name="Add_Sales_Commission_Agent" sheetId="9" r:id="rId9"/>
     <sheet name="User_Add" sheetId="10" r:id="rId10"/>
+    <sheet name="User_Detail" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -293,10 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -743,6 +744,29 @@
       </c>
       <c r="G2" s="6">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +923,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -924,16 +948,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1390</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -988,7 +1012,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
     </row>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
